--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -8,14 +8,15 @@
   <sheets>
     <sheet name="Sample Suspension" r:id="rId3" sheetId="1"/>
     <sheet name="source_storage_duration_unit" r:id="rId4" sheetId="2"/>
-    <sheet name="preparation_medium" r:id="rId5" sheetId="3"/>
-    <sheet name="preparation_condition" r:id="rId6" sheetId="4"/>
-    <sheet name="processing_time_unit" r:id="rId7" sheetId="5"/>
-    <sheet name="storage_medium" r:id="rId8" sheetId="6"/>
-    <sheet name="storage_method" r:id="rId9" sheetId="7"/>
-    <sheet name="suspension_entity_type" r:id="rId10" sheetId="8"/>
-    <sheet name="is_suspension_enriched" r:id="rId11" sheetId="9"/>
-    <sheet name=".metadata" r:id="rId12" sheetId="10"/>
+    <sheet name="tissue_weight_unit" r:id="rId5" sheetId="3"/>
+    <sheet name="preparation_medium" r:id="rId6" sheetId="4"/>
+    <sheet name="preparation_condition" r:id="rId7" sheetId="5"/>
+    <sheet name="processing_time_unit" r:id="rId8" sheetId="6"/>
+    <sheet name="storage_medium" r:id="rId9" sheetId="7"/>
+    <sheet name="storage_method" r:id="rId10" sheetId="8"/>
+    <sheet name="suspension_entity_type" r:id="rId11" sheetId="9"/>
+    <sheet name="is_suspension_enriched" r:id="rId12" sheetId="10"/>
+    <sheet name=".metadata" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
@@ -46,37 +47,47 @@
     </comment>
     <comment ref="D1" authorId="1">
       <text>
+        <t>The weight of a tissue block or the piece of tissue used in a suspension.</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <t>The tissue weight unit of measurement</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1">
+      <text>
         <t>(Required) The medium used during the sample preparation</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="G1" authorId="1">
       <text>
         <t>(Required) The condition by which the preparation occurred, such as was the
 sample placed in dry ice during the preparation.</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="H1" authorId="1">
       <text>
         <t>How long the tissue was being handled before the initial preservation</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="I1" authorId="1">
       <text>
         <t>The time unit of measurement</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="J1" authorId="1">
       <text>
         <t>(Required) What was the sample preserved in.</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="K1" authorId="1">
       <text>
         <t>(Required) The method by which the sample was stored, after preparation and
 before the assay was performed.</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="L1" authorId="1">
       <text>
         <t>For example, RIN: 8.7. For suspensions, measured by visual inspection prior to
 cell lysis or defined by known parameters such as wells with several cells or no
@@ -84,33 +95,33 @@
 specificity such as "debris", "clump", "low clump".</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="M1" authorId="1">
       <text>
         <t>(Required) The type of single cell entity derived from isolation protocol.</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="N1" authorId="1">
       <text>
         <t>(Required) Total number of cell/nuclei yielded post dissociation and enrichment.</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="O1" authorId="1">
       <text>
         <t>(Required) Was the cell/nuclei population enriched?</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="P1" authorId="1">
       <text>
         <t>If the suspension was enriched, then this is the target of the enrichment.</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="Q1" authorId="1">
       <text>
         <t>Miscellaneous details about the sample, not captured in the existing metadata
 fields.</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="R1" authorId="1">
       <text>
         <t>The string that serves as the definitive identifier for the metadata schema
 version and is readily interpretable by computers for data validation and
@@ -122,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t>sample_id</t>
   </si>
@@ -163,6 +174,42 @@
     <t>http://purl.obolibrary.org/obo/UO_0000031</t>
   </si>
   <si>
+    <t>tissue_weight_value</t>
+  </si>
+  <si>
+    <t>tissue_weight_unit</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000022</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000009</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000021</t>
+  </si>
+  <si>
     <t>preparation_medium</t>
   </si>
   <si>
@@ -172,6 +219,18 @@
     <t>http://purl.obolibrary.org/obo/OBI_0100046</t>
   </si>
   <si>
+    <t>NBF (Neutral Buffered Formalin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
+  </si>
+  <si>
     <t>Ethanol</t>
   </si>
   <si>
@@ -190,48 +249,42 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
   </si>
   <si>
-    <t>Neutral Buffered Formalin (NBF)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
-  </si>
-  <si>
-    <t>PFA</t>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>MACS tissue storage solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
+  </si>
+  <si>
+    <t>Fresh frozen CMC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
+  </si>
+  <si>
+    <t>Inflated (OCT)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
+  </si>
+  <si>
+    <t>Fresh frozen gelatin</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
+  </si>
+  <si>
+    <t>PFA (Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
   </si>
   <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
-    <t>MACS tissue storage solution</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
-  </si>
-  <si>
-    <t>Fresh frozen CMC</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
-  </si>
-  <si>
-    <t>Inflated (OCT)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
-  </si>
-  <si>
-    <t>Fresh frozen gelatin</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
-  </si>
-  <si>
     <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
   </si>
   <si>
@@ -376,24 +429,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
   </si>
   <si>
-    <t>Paraffin embedded (FFPE)</t>
+    <t>DMSO (with serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
   </si>
   <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
@@ -463,7 +516,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:15:26-07:00</t>
+    <t>2023-08-04T07:35:48-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -522,11 +575,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -553,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -562,19 +617,21 @@
     <col min="1" max="1" style="2" width="10.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" style="3" width="28.5625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" style="4" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="19.5625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="20.66015625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="21.1484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="19.98828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="15.8984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="15.46875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="14.1875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="21.76171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="22.96875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="22.08203125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="25.9140625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="5.94921875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="17.54296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="19.5625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="20.66015625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="21.1484375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="19.98828125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="15.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="15.46875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="14.1875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="21.76171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="22.96875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="22.08203125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="25.9140625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="5.94921875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -591,49 +648,55 @@
         <v>13</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="2">
-      <c r="P2" t="s">
-        <v>107</v>
+      <c r="R2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="13">
     <dataValidation type="decimal" operator="greaterThan" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
@@ -641,33 +704,40 @@
     <dataValidation type="list" sqref="C2:C1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThan" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
+    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'tissue_weight_unit'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'preparation_medium'!$A$1:$A$22</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$18</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_method'!$A$1:$A$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThan" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
+    <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'storage_medium'!$A$1:$A$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'storage_method'!$A$1:$A$11</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>0</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_suspension_enriched'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -678,6 +748,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -693,30 +792,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +878,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -787,170 +886,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -959,6 +930,195 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -968,82 +1128,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1104,7 +1264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -1114,146 +1274,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1271,119 +1431,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1401,18 +1532,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -516,7 +516,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:35:48-07:00</t>
+    <t>2023-08-11T13:11:59-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -697,14 +697,14 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="decimal" operator="greaterThan" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="C2:C1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -717,7 +717,7 @@
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$10</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -733,7 +733,7 @@
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -123,8 +123,8 @@
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>The string that serves as the definitive identifier for the metadata schema
-version and is readily interpretable by computers for data validation and
+        <t>(Required) The string that serves as the definitive identifier for the metadata
+schema version and is readily interpretable by computers for data validation and
 processing.</t>
       </text>
     </comment>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="128">
   <si>
     <t>sample_id</t>
   </si>
@@ -180,12 +180,6 @@
     <t>tissue_weight_unit</t>
   </si>
   <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
-  </si>
-  <si>
     <t>ug</t>
   </si>
   <si>
@@ -225,36 +219,36 @@
     <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
   </si>
   <si>
-    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-Lysine-Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
-  </si>
-  <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
     <t>MACS tissue storage solution</t>
   </si>
   <si>
@@ -372,6 +366,72 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185338</t>
   </si>
   <si>
+    <t>Frozen at -20 degrees celsius</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
+  </si>
+  <si>
+    <t>Frozen on dry ice</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
+  </si>
+  <si>
+    <t>processing_time_value</t>
+  </si>
+  <si>
+    <t>processing_time_unit</t>
+  </si>
+  <si>
+    <t>storage_medium</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
+  </si>
+  <si>
+    <t>DMSO (no serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
+  </si>
+  <si>
+    <t>Tris-EDTA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>DMSO (serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
+  </si>
+  <si>
+    <t>storage_method</t>
+  </si>
+  <si>
     <t>Incubated at 37 degrees celsius</t>
   </si>
   <si>
@@ -384,78 +444,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000132</t>
   </si>
   <si>
-    <t>Frozen at -20 degrees celsius</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
-  </si>
-  <si>
-    <t>Frozen on dry ice</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
-  </si>
-  <si>
     <t>Stored in refrigerator</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
   </si>
   <si>
-    <t>processing_time_value</t>
-  </si>
-  <si>
-    <t>processing_time_unit</t>
-  </si>
-  <si>
-    <t>storage_medium</t>
-  </si>
-  <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
-  </si>
-  <si>
-    <t>DMSO (no serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
-  </si>
-  <si>
-    <t>Tris-EDTA</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
-  </si>
-  <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
-    <t>FFPE (Paraffin embedded)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
-  </si>
-  <si>
-    <t>CMC</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
-  </si>
-  <si>
-    <t>storage_method</t>
-  </si>
-  <si>
     <t>quality_criteria</t>
   </si>
   <si>
@@ -516,7 +510,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:11:59-07:00</t>
+    <t>2023-09-08T20:49:50-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -651,48 +645,48 @@
         <v>14</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="M1" t="s" s="1">
         <v>106</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>107</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>108</v>
-      </c>
       <c r="N1" t="s" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P1" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s" s="1">
         <v>118</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>119</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="R2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -709,20 +703,20 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'tissue_weight_unit'!$A$1:$A$5</formula1>
+      <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+      <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_medium'!$A$1:$A$18</formula1>
@@ -757,18 +751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -792,30 +786,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +872,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -914,14 +908,6 @@
       </c>
       <c r="B4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -939,178 +925,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,82 +1114,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1229,33 +1191,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1274,146 +1220,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1431,90 +1377,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1532,18 +1478,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -30,22 +30,17 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t/>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1">
-      <text>
         <t>(Required) Unique identifier for the source (parent) from which the sample was
 taken. An example value would be HBM122.EFGH.789.</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="B1" authorId="1">
       <text>
         <t>(Required) The HuBMAP ID for the sample assigned by the ingest portal. Example:
 HBM743.CKJW.876</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="C1" authorId="1">
       <text>
         <t>An internal field labs can use it to add whatever ID(s) they want or need for
 dataset validation and tracking. This could be a single ID (e.g.,
@@ -55,28 +50,30 @@
 provider are also used by another.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="D1" authorId="1">
       <text>
         <t>(Required) How long was the source material (parent) stored, prior to this
 sample being processed.</t>
       </text>
     </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <t>(Required) The time duration unit of measurement</t>
+      </text>
+    </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>The weight of a tissue block or the piece of tissue used in a suspension.
+Knowing the weight of the parent block and tissue used in a suspension, allows
+us to compute what percentage of the block was used for the suspension.</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>The weight of a tissue block or the piece of tissue used in a suspension.</t>
+        <t>The tissue weight unit of measurement</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
-      <text>
-        <t>The tissue weight unit of measurement</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
 procurement and preparation. For example for an imaging assay, the protocol
@@ -85,39 +82,39 @@
 create the OME-TIFF file.</t>
       </text>
     </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <t>(Required) The medium used during the sample preparation</t>
+      </text>
+    </comment>
     <comment ref="J1" authorId="1">
-      <text>
-        <t>(Required) The medium used during the sample preparation</t>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="1">
       <text>
         <t>(Required) The condition by which the preparation occurred, such as was the
 sample placed in dry ice during the preparation.</t>
       </text>
     </comment>
+    <comment ref="K1" authorId="1">
+      <text>
+        <t>How long the tissue was being handled before the initial preservation</t>
+      </text>
+    </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>How long the tissue was being handled before the initial preservation</t>
+        <t>The time unit of measurement</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>(Required) What was the sample preserved in.</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
-      <text>
-        <t>(Required) What was the sample preserved in.</t>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="1">
       <text>
         <t>(Required) The method by which the sample was stored, after preparation and
 before the assay was performed.</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="O1" authorId="1">
       <text>
         <t>For example, RIN: 8.7. For suspensions, measured by visual inspection prior to
 cell lysis or defined by known parameters such as wells with several cells or no
@@ -125,33 +122,33 @@
 specificity such as "debris", "clump", "low clump".</t>
       </text>
     </comment>
+    <comment ref="P1" authorId="1">
+      <text>
+        <t>(Required) The type of single cell entity derived from isolation protocol.</t>
+      </text>
+    </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The type of single cell entity derived from isolation protocol.</t>
+        <t>(Required) Total number of cell/nuclei yielded post dissociation and enrichment.</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) Total number of cell/nuclei yielded post dissociation and enrichment.</t>
+        <t>(Required) Was the cell/nuclei population enriched?</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>(Required) Was the cell/nuclei population enriched?</t>
+        <t>If the suspension was enriched, then this is the target of the enrichment.</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
-      <text>
-        <t>If the suspension was enriched, then this is the target of the enrichment.</t>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="1">
       <text>
         <t>Miscellaneous details about the sample, not captured in the existing metadata
 fields.</t>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
@@ -163,10 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
-  <si>
-    <t>header_info</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
   <si>
     <t>source_id</t>
   </si>
@@ -549,7 +543,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-09-23T12:05:27-07:00</t>
+    <t>2023-10-03T09:51:42-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -608,12 +602,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -645,34 +638,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="11.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="2" max="2" style="3" width="9.5546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="10.0078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="18.703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="19.5625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="20.66015625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="21.1484375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="19.98828125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="15.8984375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="15.46875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="14.1875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="21.76171875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="22.96875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="22.08203125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="25.9140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="5.94921875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="9.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="10.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="6.33984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="28.5625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="27.40234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="17.54296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="23.45703125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="19.5625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="20.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="21.1484375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="19.98828125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="15.8984375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="15.46875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="14.1875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="21.76171875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="22.96875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="22.08203125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="25.9140625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="5.94921875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -692,22 +684,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s" s="1">
         <v>16</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s" s="1">
         <v>26</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s" s="1">
         <v>85</v>
@@ -716,22 +708,22 @@
         <v>86</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P1" t="s" s="1">
         <v>109</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="R1" t="s" s="1">
         <v>115</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="T1" t="s" s="1">
         <v>119</v>
@@ -739,58 +731,55 @@
       <c r="U1" t="s" s="1">
         <v>120</v>
       </c>
-      <c r="V1" t="s" s="1">
+    </row>
+    <row r="2">
+      <c r="U2" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="V2" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$7</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_medium'!$A$1:$A$18</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_suspension_enriched'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -810,12 +799,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -839,30 +828,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -880,42 +869,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -933,34 +922,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -978,178 +967,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
         <v>70</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1167,58 +1156,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
         <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1236,26 +1225,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1273,146 +1262,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
         <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
         <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
         <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
         <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1430,90 +1419,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
         <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
         <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1531,18 +1520,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -31,7 +31,7 @@
     <comment ref="A1" authorId="1">
       <text>
         <t>(Required) Unique identifier for the source (parent) from which the sample was
-taken. An example value would be HBM122.EFGH.789.</t>
+taken. Example: HBM122.EFGH.789</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -52,34 +52,35 @@
     </comment>
     <comment ref="D1" authorId="1">
       <text>
+        <t>(Required) DOI for the protocols.io page that describes the assay or sample
+procurment and preparation. For example for an imaging assay, the protocol might
+include staining of a section through the creation of an OME-TIFF file. In this
+case the protocol would include any image processing steps required to create
+the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
         <t>(Required) How long was the source material (parent) stored, prior to this
 sample being processed.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="F1" authorId="1">
       <text>
         <t>(Required) The time duration unit of measurement</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="G1" authorId="1">
       <text>
         <t>The weight of a tissue block or the piece of tissue used in a suspension.
 Knowing the weight of the parent block and tissue used in a suspension, allows
 us to compute what percentage of the block was used for the suspension.</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="H1" authorId="1">
       <text>
         <t>The tissue weight unit of measurement</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="1">
-      <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might include staining of a section through the creation of an OME-TIFF file. In
-this case the protocol would include any image processing steps required to
-create the OME-TIFF file.</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
@@ -171,6 +172,9 @@
     <t>lab_id</t>
   </si>
   <si>
+    <t>preparation_protocol_doi</t>
+  </si>
+  <si>
     <t>source_storage_duration_value</t>
   </si>
   <si>
@@ -237,9 +241,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000021</t>
   </si>
   <si>
-    <t>preparation_protocol_doi</t>
-  </si>
-  <si>
     <t>preparation_medium</t>
   </si>
   <si>
@@ -543,7 +544,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-03T09:51:42-07:00</t>
+    <t>2023-10-05T17:10:39-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -610,10 +611,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -647,11 +648,11 @@
     <col min="1" max="1" style="2" width="9.5546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" style="3" width="10.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" style="4" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="18.703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="23.45703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="23.45703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="28.5625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="27.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="17.54296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" style="10" width="19.5625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" style="11" width="20.66015625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" style="12" width="21.1484375" customWidth="true" bestFit="true"/>
@@ -684,13 +685,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s" s="1">
         <v>16</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s" s="1">
         <v>26</v>
@@ -739,18 +740,18 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
@@ -869,42 +870,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -922,34 +923,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1225,26 +1226,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -30,14 +30,14 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique identifier for the source (parent) from which the sample was
-taken. Example: HBM122.EFGH.789</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier for the source (parent) from which
+the sample was taken. Example: HBM122.EFGH.789 or SNT234.RTYU.119</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>(Required) The HuBMAP ID for the sample assigned by the ingest portal. Example:
-HBM743.CKJW.876</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier for the sample assigned by the
+ingest portal. Example: HBM743.CKJW.876 or SNT923.UYTE.122</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
@@ -544,7 +544,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-05T17:10:39-07:00</t>
+    <t>2023-10-27T18:07:48-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
   <si>
     <t>source_id</t>
   </si>
@@ -250,30 +250,30 @@
     <t>http://purl.obolibrary.org/obo/OBI_0100046</t>
   </si>
   <si>
-    <t>NBF (Neutral Buffered Formalin)</t>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Neutral Buffered Formalin (NBF)</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
-  </si>
-  <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
     <t>Inflated (Agarose)</t>
   </si>
   <si>
@@ -415,6 +415,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
   </si>
   <si>
+    <t>Stored in refrigerator</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
+  </si>
+  <si>
     <t>processing_time_value</t>
   </si>
   <si>
@@ -481,12 +487,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000132</t>
   </si>
   <si>
-    <t>Stored in refrigerator</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
-  </si>
-  <si>
     <t>quality_criteria</t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:07:48-07:00</t>
+    <t>2024-02-21T09:25:49-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -645,27 +645,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="10.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="18.703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="19.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="20.66015625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="21.1484375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="19.98828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="15.8984375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="15.46875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="14.1875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="21.76171875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="22.96875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="22.08203125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="25.9140625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="5.94921875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="8.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="8.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="15.1328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="16.875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="17.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="18.2421875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="17.2421875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="13.71484375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="13.34375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="12.23828125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="18.7734375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="19.81640625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="19.046875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="22.35546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="5.1328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -700,16 +700,16 @@
         <v>71</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O1" t="s" s="1">
         <v>108</v>
@@ -734,7 +734,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="22">
         <v>121</v>
       </c>
     </row>
@@ -758,7 +758,7 @@
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$7</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -799,12 +799,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>117</v>
       </c>
     </row>
@@ -821,37 +821,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>129</v>
       </c>
     </row>
@@ -869,42 +869,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -922,34 +922,34 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>25</v>
       </c>
     </row>
@@ -967,178 +967,178 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>70</v>
       </c>
     </row>
@@ -1149,66 +1149,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1225,26 +1233,26 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1262,146 +1270,146 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
+      <c r="A2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="A5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
+      <c r="A6" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
+      <c r="A9" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>94</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
+      <c r="A11" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
+      <c r="A12" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
+      <c r="A14" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
+      <c r="A15" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>102</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>70</v>
       </c>
     </row>
@@ -1419,90 +1427,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
+      <c r="A6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
+      <c r="A7" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>107</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
+      <c r="A10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>62</v>
       </c>
     </row>
@@ -1520,18 +1528,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>113</v>
       </c>
     </row>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>source_id</t>
   </si>
@@ -244,6 +244,90 @@
     <t>preparation_medium</t>
   </si>
   <si>
+    <t>NBF (Neutral Buffered Formalin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Trumps fixative</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000331</t>
+  </si>
+  <si>
+    <t>Inflated (OCT)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
+  </si>
+  <si>
+    <t>DMEM</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185409</t>
+  </si>
+  <si>
+    <t>PFA (Paraformaldehyde)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
+  </si>
+  <si>
+    <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000116</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Fresh frozen OCT</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000126</t>
+  </si>
+  <si>
+    <t>2% PFA/2.5% Glutaraldehyde</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000332</t>
+  </si>
+  <si>
+    <t>Bouin's</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000140</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_17790</t>
+  </si>
+  <si>
+    <t>PAXgene tissue kit (PXT)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185113</t>
+  </si>
+  <si>
     <t>PBS</t>
   </si>
   <si>
@@ -256,24 +340,6 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
   </si>
   <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
-    <t>Neutral Buffered Formalin (NBF)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
-  </si>
-  <si>
     <t>Inflated (Agarose)</t>
   </si>
   <si>
@@ -298,48 +364,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
   </si>
   <si>
-    <t>Inflated (OCT)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
-  </si>
-  <si>
     <t>Fresh frozen gelatin</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
   </si>
   <si>
-    <t>PFA (Paraformaldehyde)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
-  </si>
-  <si>
-    <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000116</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
-    <t>Fresh frozen OCT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000126</t>
-  </si>
-  <si>
     <t>RNAlater</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63348</t>
   </si>
   <si>
+    <t>Biops buffer</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000330</t>
+  </si>
+  <si>
     <t>Fixed frozen OCT (Cytofix/Cytoperm)</t>
   </si>
   <si>
@@ -352,30 +394,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C41132</t>
   </si>
   <si>
-    <t>Bouin's</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000140</t>
-  </si>
-  <si>
     <t>Fixed frozen OCT (PFA, sucrose protected)</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000147</t>
   </si>
   <si>
-    <t>Methanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_17790</t>
-  </si>
-  <si>
-    <t>PAXgene tissue kit (PXT)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185113</t>
-  </si>
-  <si>
     <t>preparation_condition</t>
   </si>
   <si>
@@ -460,6 +484,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
   </si>
   <si>
+    <t>Cyro-EM</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000333</t>
+  </si>
+  <si>
     <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
@@ -544,7 +574,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-21T09:25:49-08:00</t>
+    <t>2024-03-12T09:43:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -697,45 +727,45 @@
         <v>26</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +785,7 @@
       <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$22</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$8</formula1>
@@ -768,7 +798,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$18</formula1>
+      <formula1>'storage_medium'!$A$1:$A$20</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$11</formula1>
@@ -800,12 +830,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -829,30 +859,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +990,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1140,6 +1170,38 @@
       </c>
       <c r="B22" t="s" s="0">
         <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1157,66 +1219,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1271,146 +1333,162 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>70</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1428,90 +1506,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1529,18 +1607,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -478,18 +478,18 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
   </si>
   <si>
+    <t>Cryo-EM</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000333</t>
+  </si>
+  <si>
     <t>DMSO (serum)</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
   </si>
   <si>
-    <t>Cyro-EM</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000333</t>
-  </si>
-  <si>
     <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
@@ -574,7 +574,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-12T09:43:15-07:00</t>
+    <t>2024-03-14T10:55:17-04:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1429,18 +1429,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -574,7 +574,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-14T10:55:17-04:00</t>
+    <t>2024-03-18T09:39:12-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
   <si>
     <t>source_id</t>
   </si>
@@ -304,6 +304,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000126</t>
   </si>
   <si>
+    <t>Alpha-MEM</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000371</t>
+  </si>
+  <si>
     <t>2% PFA/2.5% Glutaraldehyde</t>
   </si>
   <si>
@@ -340,6 +346,12 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
   </si>
   <si>
+    <t>Modified Davidson's Fixative</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000370</t>
+  </si>
+  <si>
     <t>Inflated (Agarose)</t>
   </si>
   <si>
@@ -370,6 +382,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
   </si>
   <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000372</t>
+  </si>
+  <si>
     <t>RNAlater</t>
   </si>
   <si>
@@ -400,6 +418,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000147</t>
   </si>
   <si>
+    <t>Lysis buffer</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C178573</t>
+  </si>
+  <si>
     <t>preparation_condition</t>
   </si>
   <si>
@@ -460,6 +484,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
   </si>
   <si>
+    <t>Formic acid in water</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83719</t>
+  </si>
+  <si>
     <t>DMSO (no serum)</t>
   </si>
   <si>
@@ -574,7 +604,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-18T09:39:12-07:00</t>
+    <t>2024-04-20T17:32:34-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -727,45 +757,45 @@
         <v>26</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +815,7 @@
       <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$26</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$8</formula1>
@@ -798,7 +828,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$20</formula1>
+      <formula1>'storage_medium'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$11</formula1>
@@ -830,12 +860,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -859,30 +889,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1202,6 +1232,38 @@
       </c>
       <c r="B26" t="s" s="0">
         <v>78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1219,34 +1281,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1259,26 +1321,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1333,18 +1395,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -1357,10 +1419,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1373,114 +1435,114 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1489,6 +1551,14 @@
       </c>
       <c r="B20" t="s" s="0">
         <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1506,34 +1576,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1546,50 +1616,50 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1607,18 +1677,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
   <si>
     <t>source_id</t>
   </si>
@@ -223,6 +223,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0000023</t>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000021</t>
+  </si>
+  <si>
     <t>mg</t>
   </si>
   <si>
@@ -235,12 +241,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000009</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000021</t>
-  </si>
-  <si>
     <t>preparation_medium</t>
   </si>
   <si>
@@ -352,6 +352,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000370</t>
   </si>
   <si>
+    <t>HPMC-PVP</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000386</t>
+  </si>
+  <si>
     <t>Inflated (Agarose)</t>
   </si>
   <si>
@@ -535,6 +541,12 @@
     <t>storage_method</t>
   </si>
   <si>
+    <t>Stored in desiccator</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000387</t>
+  </si>
+  <si>
     <t>Incubated at 37 degrees celsius</t>
   </si>
   <si>
@@ -571,12 +583,12 @@
     <t>is_suspension_enriched</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>suspension_enriched_target</t>
   </si>
   <si>
@@ -604,7 +616,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-20T17:32:34-07:00</t>
+    <t>2024-06-28T15:48:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -757,45 +769,45 @@
         <v>26</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +827,7 @@
       <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$30</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$31</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$8</formula1>
@@ -828,10 +840,10 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$21</formula1>
+      <formula1>'storage_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_method'!$A$1:$A$11</formula1>
+      <formula1>'storage_method'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
@@ -860,12 +872,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -889,30 +901,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1264,6 +1276,14 @@
       </c>
       <c r="B30" t="s" s="0">
         <v>86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1281,34 +1301,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -1321,26 +1341,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1403,10 +1423,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
@@ -1435,58 +1455,58 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>112</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -1507,18 +1527,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -1531,33 +1551,41 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>82</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B22" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -1568,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1576,34 +1604,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -1616,26 +1644,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -1656,10 +1684,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>82</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1677,18 +1713,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="156">
   <si>
     <t>source_id</t>
   </si>
@@ -508,6 +508,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
   </si>
   <si>
+    <t>Concentrated quench buffer</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000391</t>
+  </si>
+  <si>
     <t>Gelatin</t>
   </si>
   <si>
@@ -616,7 +622,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-06-28T15:48:18-07:00</t>
+    <t>2024-10-02T11:08:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -781,33 +787,33 @@
         <v>106</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +846,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$22</formula1>
+      <formula1>'storage_medium'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$12</formula1>
@@ -872,12 +878,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -901,30 +907,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1503,18 +1509,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -1535,18 +1541,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -1559,33 +1565,41 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B23" t="s" s="0">
         <v>56</v>
       </c>
     </row>
@@ -1644,26 +1658,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
@@ -1713,18 +1727,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="162">
   <si>
     <t>source_id</t>
   </si>
@@ -268,6 +268,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000331</t>
   </si>
   <si>
+    <t>1X fixation &amp; permeabilization buffer</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000425</t>
+  </si>
+  <si>
     <t>Inflated (OCT)</t>
   </si>
   <si>
@@ -484,6 +490,12 @@
     <t>storage_medium</t>
   </si>
   <si>
+    <t>1X quench buffer</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000427</t>
+  </si>
+  <si>
     <t>OCT</t>
   </si>
   <si>
@@ -571,6 +583,12 @@
     <t>suspension_entity_type</t>
   </si>
   <si>
+    <t>Nucleus + cell</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000424</t>
+  </si>
+  <si>
     <t>Nucleus</t>
   </si>
   <si>
@@ -622,7 +640,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-10-02T11:08:45-07:00</t>
+    <t>2025-03-27T10:36:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -775,45 +793,45 @@
         <v>26</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +851,7 @@
       <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$31</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$32</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$8</formula1>
@@ -846,13 +864,13 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$23</formula1>
+      <formula1>'storage_medium'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
+      <formula1>'suspension_entity_type'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -878,12 +896,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -907,30 +925,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1290,6 +1308,14 @@
       </c>
       <c r="B31" t="s" s="0">
         <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1307,66 +1333,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1421,178 +1447,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>114</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>118</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1601,6 +1627,14 @@
       </c>
       <c r="B23" t="s" s="0">
         <v>56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1618,98 +1652,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1753,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1727,18 +1761,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -53,11 +53,11 @@
     <comment ref="D1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
@@ -640,7 +640,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-03-27T10:36:18-07:00</t>
+    <t>2025-04-24T10:45:49-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -30,130 +30,147 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier for the source (parent) from which
-the sample was taken. Example: HBM122.EFGH.789 or SNT234.RTYU.119</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the source (parent
+data) from which the sample was derived. Example: HBM122.EFGH.789</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier for the sample assigned by the
-ingest portal. Example: HBM743.CKJW.876 or SNT923.UYTE.122</t>
+        <t>(Required) The unique HuBMAP or SenNet identifier assigned to the sample by the
+ingest portal. Example: HBM743.CKJW.876</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>The weight of a tissue block or the piece of tissue used in a suspension.
-Knowing the weight of the parent block and tissue used in a suspension, allows
-us to compute what percentage of the block was used for the suspension.</t>
+        <t>The weight of a tissue block or the piece of tissue used in a suspension. This
+information is crucial for calculating the percentage of the parent block that
+was utilized in the suspension preparation. If the weight is not applicable or
+unknown, this field may be left blank. Example: 100</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>The tissue weight unit of measurement</t>
+        <t>The unit of measurement for the tissue weight value. If no tissue weight is
+specified, this field may be left blank. Example: g</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) The medium used during the sample preparation</t>
+        <t>(Required) The medium used during the sample preparation process. If no specific
+medium was utilized, enter "None". If medium was not recorded, enter "Unknown".
+Example: Fresh frozen CMC</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The condition by which the preparation occurred, such as was the
-sample placed in dry ice during the preparation.</t>
+        <t>(Required) The condition under which the sample preparation took place, such as
+whether the sample was placed on dry ice during the process. If preparation
+condition was not recorded, enter "Unknown". Example: Frozen on dry ice</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>How long the tissue was being handled before the initial preservation</t>
+        <t>The duration for which the tissue was handled prior to its initial preservation.
+Example: 120</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement for the processing time value. If processing time is not
+specified, this field may be left blank. Example: minute</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) What was the sample preserved in.</t>
+        <t>(Required) The medium used to preserve the sample. If no specific medium was
+utilized, enter "None". If medium was not recorded, enter "Unknown". Example:
+FFPE (Paraffin embedded)</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The method by which the sample was stored, after preparation and
-before the assay was performed.</t>
+        <t>(Required) The method used to store the sample after preparation and prior to
+performing the assay. If no specific storage method was utilized, enter "None".
+If storage method was not recorded, enter "Unknown". Example: Frozen in dry ice</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>For example, RIN: 8.7. For suspensions, measured by visual inspection prior to
-cell lysis or defined by known parameters such as wells with several cells or no
-cells. This can be captured at a high level. "OK" or "not OK", or with more
-specificity such as "debris", "clump", "low clump".</t>
+        <t>The quality criteria used to assess the sample, which may include metrics such
+as RIN (e.g., RIN: 8.7) or visual inspection parameters for suspensions prior to
+cell lysis. These criteria can be captured at a high level with general terms
+like "OK" or "not OK" or with more specific descriptors such as "debris" "clump"
+or "low clump". Example: RIN: 8.7, low clump, no visible debris</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The type of single cell entity derived from isolation protocol.</t>
+        <t>(Required) The type of single-cell entity that is derived from the isolation
+protocol. Example: Nucleus + cell</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) Total number of cell/nuclei yielded post dissociation and enrichment.</t>
+        <t>(Required) The total number of cells or nuclei obtained following the processes
+of dissociation and enrichment. Example: 300000</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) Was the cell/nuclei population enriched?</t>
+        <t>(Required) Indicates whether the cell or nuclei population was enriched prior to
+analysis. Example: Yes</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>If the suspension was enriched, then this is the target of the enrichment.</t>
+        <t>The target of enrichment if the suspension was enriched. Example: CD8+ T cells</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>Miscellaneous details about the sample, not captured in the existing metadata
-fields.</t>
+        <t>Miscellaneous details about the sample that are not captured in the existing
+metadata fields. Example: Sample was stored at 4°C for 48 hours prior to
+processing due to equipment maintenance delay</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
-processing.</t>
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
+processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
   </commentList>
@@ -161,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
   <si>
     <t>source_id</t>
   </si>
@@ -490,30 +507,54 @@
     <t>storage_medium</t>
   </si>
   <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65147</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
+  </si>
+  <si>
+    <t>DMSO (no serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>DMSO (serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
+  </si>
+  <si>
     <t>1X quench buffer</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000427</t>
   </si>
   <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
-  </si>
-  <si>
     <t>Formic acid in water</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83719</t>
   </si>
   <si>
-    <t>DMSO (no serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
-  </si>
-  <si>
     <t>Tris-EDTA</t>
   </si>
   <si>
@@ -526,36 +567,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000391</t>
   </si>
   <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
     <t>Cryo-EM</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000333</t>
   </si>
   <si>
-    <t>DMSO (serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
     <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
   </si>
   <si>
-    <t>CMC</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
-  </si>
-  <si>
     <t>storage_method</t>
   </si>
   <si>
@@ -640,7 +663,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:45:49-07:00</t>
+    <t>2025-10-16T07:27:53-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -805,33 +828,33 @@
         <v>108</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +887,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$24</formula1>
+      <formula1>'storage_medium'!$A$1:$A$25</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$12</formula1>
@@ -896,12 +919,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -925,30 +948,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1447,114 +1470,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>118</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>120</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -1567,74 +1590,82 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>86</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>58</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1692,26 +1723,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
@@ -1761,26 +1792,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="170">
   <si>
     <t>source_id</t>
   </si>
@@ -261,6 +261,12 @@
     <t>preparation_medium</t>
   </si>
   <si>
+    <t>HTK Solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000152</t>
+  </si>
+  <si>
     <t>NBF (Neutral Buffered Formalin)</t>
   </si>
   <si>
@@ -393,6 +399,12 @@
     <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
   </si>
   <si>
+    <t>UW Solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000151</t>
+  </si>
+  <si>
     <t>MACS tissue storage solution</t>
   </si>
   <si>
@@ -498,6 +510,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
   </si>
   <si>
+    <t>Stored on wet ice</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000465</t>
+  </si>
+  <si>
     <t>processing_time_value</t>
   </si>
   <si>
@@ -663,7 +681,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-16T07:27:53-07:00</t>
+    <t>2025-10-21T13:43:31-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -816,45 +834,45 @@
         <v>26</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -874,10 +892,10 @@
       <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$32</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$8</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -919,12 +937,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -948,30 +966,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1341,6 +1359,22 @@
         <v>90</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1348,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1356,66 +1390,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1470,202 +1512,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1683,98 +1725,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1792,26 +1834,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
   <si>
     <t>source_id</t>
   </si>
@@ -309,6 +309,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185409</t>
   </si>
   <si>
+    <t>Perfadex Plus</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000249</t>
+  </si>
+  <si>
     <t>PFA (Paraformaldehyde)</t>
   </si>
   <si>
@@ -681,7 +687,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-21T13:43:31-07:00</t>
+    <t>2025-11-03T17:32:07-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -834,45 +840,45 @@
         <v>26</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +898,7 @@
       <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$34</formula1>
+      <formula1>'preparation_medium'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$9</formula1>
@@ -937,12 +943,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -966,30 +972,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1373,6 +1379,14 @@
       </c>
       <c r="B34" t="s" s="0">
         <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1390,74 +1404,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1512,18 +1526,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -1544,170 +1558,170 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1725,98 +1739,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1834,26 +1848,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/latest/sample-suspension.xlsx
+++ b/sample-suspension/latest/sample-suspension.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="174">
   <si>
     <t>source_id</t>
   </si>
@@ -567,6 +567,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
   </si>
   <si>
+    <t>Nuclease-free water</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000482</t>
+  </si>
+  <si>
     <t>1X quench buffer</t>
   </si>
   <si>
@@ -687,7 +693,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-03T17:32:07-08:00</t>
+    <t>2026-02-24T15:31:04-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -852,33 +858,33 @@
         <v>116</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
       <c r="U2" t="s" s="22">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +917,7 @@
       <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$25</formula1>
+      <formula1>'storage_medium'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_method'!$A$1:$A$12</formula1>
@@ -943,12 +949,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -972,30 +978,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1606,82 +1612,82 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -1702,25 +1708,33 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B26" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -1779,26 +1793,26 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
@@ -1848,26 +1862,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
